--- a/neat-taxonomy.xlsx
+++ b/neat-taxonomy.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/neat/</t>
+          <t>http://purl.org/neat/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/neat/</t>
+          <t>http://purl.org/neat/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>

--- a/neat-taxonomy.xlsx
+++ b/neat-taxonomy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040</t>
+          <t>https://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0002-9381-9693</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>https://orcid.org/0000-0003-0732-4617</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -792,12 +792,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020-12-01T00:00:00+01:00</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -821,7 +821,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -850,69 +850,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>rdfs:label</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>neat:IEVref</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
+          <t>2020-12-01T00:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -923,41 +879,69 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>skos:prefLabel</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>neat:IEVref</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>IEV ref</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>rdf:Property</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>IEV ref</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>A code used to identify certain concept in IEC Electropedia (http://www.electropedia.org/)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -968,31 +952,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>neat:Economics</t>
+          <t>neat:IEVref</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Economics</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>IEV ref</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>rdf:Property</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>IEV ref</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A code used to identify certain concept in IEC Electropedia (http://www.electropedia.org/)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040, https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1005,32 +997,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>neat:BusinessModels</t>
+          <t>neat:Economics</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Business Models</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>A  conceptual structure that supports the viability of wind energy projects and details how they operate to create profit.</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>neat:Economics</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040</t>
+          <t>http://orcid.org/0000-0003-4124-9040, https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1050,19 +1034,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>neat:LevelizedCostofEnergyModels</t>
+          <t>neat:BusinessModels</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Levelized Cost of Energy Models</t>
+          <t>Business Models</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>An expression of the production cost of each unit of electricity generated over the working life of the plant taking into account wind farm development costs, capital investment, financial costs and lifetime running costs.</t>
+          <t>A  conceptual structure that supports the viability of wind energy projects and details how they operate to create profit.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1095,17 +1079,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>neat:ProjectFinance</t>
+          <t>neat:LevelizedCostofEnergyModels</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Project Finance</t>
+          <t>Levelized Cost of Energy Models</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>An expression of the production cost of each unit of electricity generated over the working life of the plant taking into account wind farm development costs, capital investment, financial costs and lifetime running costs.</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
@@ -1136,12 +1124,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>neat:MarketModels</t>
+          <t>neat:ProjectFinance</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Market Models</t>
+          <t>Project Finance</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1177,12 +1165,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>neat:SupportSchemes</t>
+          <t>neat:MarketModels</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Support Schemes</t>
+          <t>Market Models</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1218,28 +1206,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>neat:OperationMaintenance</t>
+          <t>neat:SupportSchemes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Operation &amp; Maintenance</t>
+          <t>Support Schemes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Combination of all technical and management actions intended to retain an item in, or restore it to, a state in which it can perform as required.</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>192-06</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>neat:Economics</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
@@ -1263,30 +1247,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>neat:Commissioning</t>
+          <t>neat:OperationMaintenance</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Commissioning</t>
+          <t>Operation &amp; Maintenance</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Activities undertaken to prepare a system or product prior to demonstrating that it meets its specified requirements.</t>
+          <t>Combination of all technical and management actions intended to retain an item in, or restore it to, a state in which it can perform as required.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>neat:OperationMaintenance</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>821-12</t>
+          <t>192-06</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1300,11 +1280,7 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>SOURCE: IEC 62278:2002, 3.50</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1316,19 +1292,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>neat:Decommissioning</t>
+          <t>neat:Commissioning</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Decommissioning</t>
+          <t>Commissioning</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Administrative and technical actions taken to allow the removal of some or all of the regulatory controls from a facility</t>
+          <t>Activities undertaken to prepare a system or product prior to demonstrating that it meets its specified requirements.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1339,7 +1315,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>395-08</t>
+          <t>821-12</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1353,7 +1329,11 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SOURCE: IEC 62278:2002, 3.50</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1365,30 +1345,30 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>neat:EndofLifeExtension</t>
+          <t>neat:Decommissioning</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>End-of-Life Extension</t>
+          <t>Decommissioning</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>When the life cycle stage of a product instead of end is extended for a certain period.</t>
+          <t>Administrative and technical actions taken to allow the removal of some or all of the regulatory controls from a facility</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>neat:Decommissioning</t>
+          <t>neat:OperationMaintenance</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>904-01-17</t>
+          <t>395-08</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1414,24 +1394,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>neat:ReCertification</t>
+          <t>neat:EndofLifeExtension</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Re-Certification</t>
+          <t>End-of-Life Extension</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>When the life cycle stage of a product instead of end is extended for a certain period.</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>neat:EndofLifeExtension</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>neat:Decommissioning</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>904-01-17</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
@@ -1455,12 +1443,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>neat:Recycling</t>
+          <t>neat:ReCertification</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Recycling</t>
+          <t>Re-Certification</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1496,21 +1484,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>neat:Repowering</t>
+          <t>neat:Recycling</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Repowering</t>
+          <t>Recycling</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Wind turbines are dismantled and new wind turbines are installed in a brownfield and/or greenfield site.</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
@@ -1541,26 +1525,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>neat:Revamping</t>
+          <t>neat:Repowering</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Revamping</t>
+          <t>Repowering</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>An act of upgrading certain components of a wind turbine to extend the overall life time of the turbine (e.g. generator). The overall external layout of the farm remains unchanged (e.g. hub height, siting, size). Revamping differs from a normal operation and maintenance activities. New technology is installed or components are replaced instead of the initial equipment of the turbine.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Lifetime Extension, Refurbishment, Enhancement, Reactivation</t>
-        </is>
-      </c>
+          <t>Wind turbines are dismantled and new wind turbines are installed in a brownfield and/or greenfield site.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>neat:EndofLifeExtension</t>
@@ -1590,25 +1570,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>neat:Forecasting</t>
+          <t>neat:Revamping</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Forecasting</t>
+          <t>Revamping</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>An estimate of the expected parameter from a system at a given future date.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>An act of upgrading certain components of a wind turbine to extend the overall life time of the turbine (e.g. generator). The overall external layout of the farm remains unchanged (e.g. hub height, siting, size). Revamping differs from a normal operation and maintenance activities. New technology is installed or components are replaced instead of the initial equipment of the turbine.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lifetime Extension, Refurbishment, Enhancement, Reactivation</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>neat:OperationMaintenance</t>
+          <t>neat:EndofLifeExtension</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1635,17 +1619,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>neat:HealthSafety</t>
+          <t>neat:Forecasting</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Health &amp; Safety</t>
+          <t>Forecasting</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>An estimate of the expected parameter from a system at a given future date.</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
@@ -1676,21 +1664,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>neat:Installation</t>
+          <t>neat:HealthSafety</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Installation</t>
+          <t>Health &amp; Safety</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>An apparatus or a set of devices and/or apparatuses associated in a given location to fulfil specified purposes, including all means for their satisfactory operation</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
@@ -1721,19 +1705,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>neat:MaintenanceScheduling</t>
+          <t>neat:Installation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maintenance Scheduling</t>
+          <t>Installation</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A maintenance carried out in accordance with a specified schedule, which can identify the need for some corrective maintenance action.</t>
+          <t>An apparatus or a set of devices and/or apparatuses associated in a given location to fulfil specified purposes, including all means for their satisfactory operation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1742,11 +1726,7 @@
           <t>neat:OperationMaintenance</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>192-06</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
@@ -1770,24 +1750,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>neat:Siting</t>
+          <t>neat:MaintenanceScheduling</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Siting</t>
+          <t>Maintenance Scheduling</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A process of evaluating a number of factor before deciding to pursue development of a new wind farm project. These factors include: wind resource and compatibility of land/area, environmental impacts and community input (i.e., social acceptance)</t>
+          <t>A maintenance carried out in accordance with a specified schedule, which can identify the need for some corrective maintenance action.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>neat:OperationMaintenance</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>192-06</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
@@ -1811,36 +1799,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>neat:DesignConditions</t>
+          <t>neat:Siting</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Design Conditions</t>
+          <t>Siting</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A possible mode of wind turbine operation, e.g. power production, parking etc.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Design Situation</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>neat:Siting</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>415-02</t>
-        </is>
-      </c>
+          <t>A process of evaluating a number of factor before deciding to pursue development of a new wind farm project. These factors include: wind resource and compatibility of land/area, environmental impacts and community input (i.e., social acceptance)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
@@ -1864,36 +1840,40 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>neat:Turbulence</t>
+          <t>neat:DesignConditions</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Turbulence</t>
+          <t>Design Conditions</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Random variations in velocity within a liquid or gaseous medium which may induce heterogeneous values of certain characteristics of the medium, such as refractive index.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>A possible mode of wind turbine operation, e.g. power production, parking etc.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Design Situation</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>neat:DesignConditions</t>
+          <t>neat:Siting</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>705-04</t>
+          <t>415-02</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9041</t>
+          <t>http://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1913,28 +1893,36 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>neat:Infrastructures</t>
+          <t>neat:Turbulence</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Infrastructures</t>
+          <t>Turbulence</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Random variations in velocity within a liquid or gaseous medium which may induce heterogeneous values of certain characteristics of the medium, such as refractive index.</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>neat:Siting</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>neat:DesignConditions</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>705-04</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9042</t>
+          <t>http://orcid.org/0000-0003-4124-9041</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -1954,21 +1942,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>neat:LongTermExtrapolation</t>
+          <t>neat:Infrastructures</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Long-Term Extrapolation</t>
+          <t>Infrastructures</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Long-term extrapolation involves making statistical forecasts by using historical trends that are projected for a specified period of time into the future.This type of extrapolation is only used for time-series forecasts.</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
@@ -1979,7 +1963,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9043</t>
+          <t>http://orcid.org/0000-0003-4124-9042</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1999,19 +1983,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>neat:ResourceAssessment</t>
+          <t>neat:LongTermExtrapolation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Resource Assessment</t>
+          <t>Long-Term Extrapolation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>An estimate of the total energy production of a wind turbine generator system during a one-year period by applying the power curve to different reference wind speed frequency distributions at hub height, assuming 100% availability.</t>
+          <t>Long-term extrapolation involves making statistical forecasts by using historical trends that are projected for a specified period of time into the future.This type of extrapolation is only used for time-series forecasts.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2020,15 +2004,11 @@
           <t>neat:Siting</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>351-42</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9044</t>
+          <t>http://orcid.org/0000-0003-4124-9043</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2048,28 +2028,36 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>neat:SpatialPlanning</t>
+          <t>neat:ResourceAssessment</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Spatial Planning</t>
+          <t>Resource Assessment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>An estimate of the total energy production of a wind turbine generator system during a one-year period by applying the power curve to different reference wind speed frequency distributions at hub height, assuming 100% availability.</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>neat:Siting</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>351-42</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9045</t>
+          <t>http://orcid.org/0000-0003-4124-9044</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2089,36 +2077,28 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>neat:EnviromentalImpact</t>
+          <t>neat:SpatialPlanning</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Enviromental Impact</t>
+          <t>Spatial Planning</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>A change to the environment, whether adverse or beneficial, wholly or partly resulting from environmental aspects.</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>neat:SpatialPlanning</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>904-01</t>
-        </is>
-      </c>
+          <t>neat:Siting</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9046</t>
+          <t>http://orcid.org/0000-0003-4124-9045</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2126,11 +2106,7 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>SOURCE: IEC Guide 109:2012, 3.5, modified – The expression "an organization's" has been omitted.</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2142,28 +2118,36 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>neat:NatureImpacts</t>
+          <t>neat:EnviromentalImpact</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nature Impacts</t>
+          <t>Enviromental Impact</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A change to the environment, whether adverse or beneficial, wholly or partly resulting from environmental aspects.</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>neat:EnviromentalImpact</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>neat:SpatialPlanning</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>904-01</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9047</t>
+          <t>http://orcid.org/0000-0003-4124-9046</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2171,7 +2155,11 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>SOURCE: IEC Guide 109:2012, 3.5, modified – The expression "an organization's" has been omitted.</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2183,21 +2171,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>neat:NoisePerception</t>
+          <t>neat:NatureImpacts</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Noise Perception</t>
+          <t>Nature Impacts</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Individual perception of the acoustic noise level produced by a machine under specified conditions of operation and measurement.</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
@@ -2208,7 +2192,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9048</t>
+          <t>http://orcid.org/0000-0003-4124-9047</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2228,22 +2212,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>neat:SocialAcceptance</t>
+          <t>neat:NoisePerception</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Social Acceptance</t>
+          <t>Noise Perception</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Community Input</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Individual perception of the acoustic noise level produced by a machine under specified conditions of operation and measurement.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>neat:EnviromentalImpact</t>
@@ -2253,7 +2237,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9049</t>
+          <t>http://orcid.org/0000-0003-4124-9048</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2273,28 +2257,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>neat:LegalAspects</t>
+          <t>neat:SocialAcceptance</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Legal Aspects</t>
+          <t>Social Acceptance</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Community Input</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>neat:SpatialPlanning</t>
+          <t>neat:EnviromentalImpact</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9050</t>
+          <t>http://orcid.org/0000-0003-4124-9049</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2314,32 +2302,28 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>neat:WindAtlas</t>
+          <t>neat:LegalAspects</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wind Atlas</t>
+          <t>Legal Aspects</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>A wind atlas is a systematic and comprehensive collection of generalized wind climates derived by the wind atlas methodology.</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>neat:Siting</t>
+          <t>neat:SpatialPlanning</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9051</t>
+          <t>http://orcid.org/0000-0003-4124-9050</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2359,19 +2343,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>neat:WindMapping</t>
+          <t>neat:WindAtlas</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wind Mapping</t>
+          <t>Wind Atlas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A process of visualizing spatial variation of wind speed over geographic areas to help choosing prospective development areas for wind turbines installation.</t>
+          <t>A wind atlas is a systematic and comprehensive collection of generalized wind climates derived by the wind atlas methodology.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2384,7 +2368,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9052</t>
+          <t>http://orcid.org/0000-0003-4124-9051</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2404,28 +2388,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>neat:WindPowerPlant</t>
+          <t>neat:WindMapping</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wind Power Plant</t>
+          <t>Wind Mapping</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A power station comprising a group or groups of wind turbines.</t>
+          <t>A process of visualizing spatial variation of wind speed over geographic areas to help choosing prospective development areas for wind turbines installation.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>neat:Siting</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040</t>
+          <t>http://orcid.org/0000-0003-4124-9052</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2445,32 +2433,28 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>neat:AncillaryServices</t>
+          <t>neat:WindPowerPlant</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ancillary Services</t>
+          <t>Wind Power Plant</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Services necessary for the operation of an electric power system provided by the system operator and/or by power system users.</t>
+          <t>A power station comprising a group or groups of wind turbines.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>neat:WindPowerPlant</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9049</t>
+          <t>http://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2479,11 +2463,7 @@
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>System ancillary services may include the participation in frequency regulation, reactive power regulation, active power reservation, etc.</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -2494,19 +2474,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>neat:GridConnection</t>
+          <t>neat:AncillaryServices</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Grid Connection</t>
+          <t>Ancillary Services</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A connection to an electric power network.</t>
+          <t>Services necessary for the operation of an electric power system provided by the system operator and/or by power system users.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2515,15 +2495,11 @@
           <t>neat:WindPowerPlant</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>692-01-03</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9050</t>
+          <t>http://orcid.org/0000-0003-4124-9049</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2532,7 +2508,11 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>System ancillary services may include the participation in frequency regulation, reactive power regulation, active power reservation, etc.</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -2543,28 +2523,36 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>neat:ArrayCables</t>
+          <t>neat:GridConnection</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Array Cables</t>
+          <t>Grid Connection</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>A connection to an electric power network.</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>neat:GridConnection</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>neat:WindPowerPlant</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>692-01-03</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9051</t>
+          <t>http://orcid.org/0000-0003-4124-9050</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2584,21 +2572,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>neat:Substation</t>
+          <t>neat:ArrayCables</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Substation</t>
+          <t>Array Cables</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>A part of a power system, concentrated in a given place, including mainly the terminations of transmission or distribution lines switchgear and housing and which may also include transformers. It generally includes facilities necessary for system security and control (e.g. the protective devices).</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
@@ -2609,7 +2593,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9052</t>
+          <t>http://orcid.org/0000-0003-4124-9051</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2618,11 +2602,7 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>According to the nature of the system within which the substation is included, a prefix may qualify it.</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -2633,19 +2613,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>neat:TransmissionSystem</t>
+          <t>neat:Substation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transmission System</t>
+          <t>Substation</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Whole of the means of transmission, comprising the transmission medium, terminal equipment, any necessary intermediate equipment and any equipment provided for such ancillary purposes as power feeding, supervision and testing.</t>
+          <t>A part of a power system, concentrated in a given place, including mainly the terminations of transmission or distribution lines switchgear and housing and which may also include transformers. It generally includes facilities necessary for system security and control (e.g. the protective devices).</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2654,15 +2634,11 @@
           <t>neat:GridConnection</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>704</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9053</t>
+          <t>http://orcid.org/0000-0003-4124-9052</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2673,7 +2649,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>A transmission system is in accordance with a set of principles that is also called “transmission system” (see IEV 704-04-10).</t>
+          <t>According to the nature of the system within which the substation is included, a prefix may qualify it.</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -2686,40 +2662,36 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>neat:Loads</t>
+          <t>neat:TransmissionSystem</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Loads</t>
+          <t>Transmission System</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A combination of design situations and external conditions which result in a structural loading.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Load Cases</t>
-        </is>
-      </c>
+          <t>Whole of the means of transmission, comprising the transmission medium, terminal equipment, any necessary intermediate equipment and any equipment provided for such ancillary purposes as power feeding, supervision and testing.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>neat:WindPowerPlant</t>
+          <t>neat:GridConnection</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>415-02</t>
+          <t>704</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9054</t>
+          <t>http://orcid.org/0000-0003-4124-9053</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2728,7 +2700,11 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>A transmission system is in accordance with a set of principles that is also called “transmission system” (see IEV 704-04-10).</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -2739,28 +2715,40 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>neat:Performance</t>
+          <t>neat:Loads</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Loads</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>A combination of design situations and external conditions which result in a structural loading.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Load Cases</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>neat:WindPowerPlant</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>415-02</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9055</t>
+          <t>http://orcid.org/0000-0003-4124-9054</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2780,36 +2768,28 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>neat:WindFarm</t>
+          <t>neat:Performance</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wind Farm</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>A group of wind turbine generator jointly operated.</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>neat:WindPowerPlant</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>415-01</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9056</t>
+          <t>http://orcid.org/0000-0003-4124-9055</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2829,32 +2809,36 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>neat:Wakes</t>
+          <t>neat:WindFarm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wakes</t>
+          <t>Wind Farm</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A region behind the wind turbine with reduced wind speed and increased turbulence due to the extraction of energy from the wind when the flow pass through the rotor.</t>
+          <t>A group of wind turbine generator jointly operated.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>neat:WindFarm</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>neat:WindPowerPlant</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>415-01</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9057</t>
+          <t>http://orcid.org/0000-0003-4124-9056</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2874,19 +2858,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>neat:WindFarmControl</t>
+          <t>neat:Wakes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wind Farm Control</t>
+          <t>Wakes</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A sub‑system that receives information about the condition of the wind farm and/or its environment and adjusts the turbines in order to operate them within their operating limits.</t>
+          <t>A region behind the wind turbine with reduced wind speed and increased turbulence due to the extraction of energy from the wind when the flow pass through the rotor.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2899,7 +2883,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9058</t>
+          <t>http://orcid.org/0000-0003-4124-9057</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2919,28 +2903,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>neat:WindTurbine</t>
+          <t>neat:WindFarmControl</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Wind Farm Control</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A rotating machinery in which the kinetic wind energy is transformed into another form of energy.</t>
+          <t>A sub‑system that receives information about the condition of the wind farm and/or its environment and adjusts the turbines in order to operate them within their operating limits.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>neat:WindFarm</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9040</t>
+          <t>http://orcid.org/0000-0003-4124-9058</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2960,32 +2948,28 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>neat:ConceptDesign</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Concept Design</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>An activity applied in order to analyse and transform specified requirements into acceptable design solutions.</t>
+          <t>A rotating machinery in which the kinetic wind energy is transformed into another form of energy.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>neat:WindTurbine</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9057</t>
+          <t>http://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2993,11 +2977,7 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>This entry was numbered 351-21-29 in IEC 60050-351:2006.</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3009,36 +2989,32 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>neat:Aerial</t>
+          <t>neat:ConceptDesign</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Aerial</t>
+          <t>Concept Design</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>An aerial wind turbine is a design concept for a wind turbine with a rotor supported in the air without a tower, thus benefiting from more mechanical and aerodynamic options, the higher velocity and persistence of wind at high altitudes.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Airborne</t>
-        </is>
-      </c>
+          <t>An activity applied in order to analyse and transform specified requirements into acceptable design solutions.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>neat:ConceptDesign</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9058</t>
+          <t>http://orcid.org/0000-0003-4124-9057</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3046,7 +3022,11 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>This entry was numbered 351-21-29 in IEC 60050-351:2006.</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3058,22 +3038,26 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>neat:HorizontalAxis</t>
+          <t>neat:Aerial</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Horizontal Axis</t>
+          <t>Aerial</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A wind turbine which rotor axis is horizontal.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>An aerial wind turbine is a design concept for a wind turbine with a rotor supported in the air without a tower, thus benefiting from more mechanical and aerodynamic options, the higher velocity and persistence of wind at high altitudes.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Airborne</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>neat:ConceptDesign</t>
@@ -3083,7 +3067,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9059</t>
+          <t>http://orcid.org/0000-0003-4124-9058</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3103,19 +3087,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>neat:MonoMultiRotor</t>
+          <t>neat:HorizontalAxis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mono-Multi Rotor</t>
+          <t>Horizontal Axis</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A wind turbine with one or more rotors, independent on the number of blades.</t>
+          <t>A wind turbine which rotor axis is horizontal.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3128,7 +3112,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9060</t>
+          <t>http://orcid.org/0000-0003-4124-9059</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3148,19 +3132,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>neat:VerticalAxis</t>
+          <t>neat:MonoMultiRotor</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Vertical Axis</t>
+          <t>Mono-Multi Rotor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A wind turbine which rotor axis is vertical.</t>
+          <t>A wind turbine with one or more rotors, independent on the number of blades.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9061</t>
+          <t>http://orcid.org/0000-0003-4124-9060</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3193,32 +3177,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>neat:Controls</t>
+          <t>neat:VerticalAxis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Controls</t>
+          <t>Vertical Axis</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A purposeful action on or in a process to meet specified objectives.</t>
+          <t>A wind turbine which rotor axis is vertical.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>neat:WindTurbine</t>
+          <t>neat:ConceptDesign</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9062</t>
+          <t>http://orcid.org/0000-0003-4124-9061</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3238,28 +3222,32 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>neat:BlackBox</t>
+          <t>neat:Controls</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Black-Box</t>
+          <t>Controls</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>A purposeful action on or in a process to meet specified objectives.</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>neat:Controls</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9063</t>
+          <t>http://orcid.org/0000-0003-4124-9062</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3279,32 +3267,28 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>neat:Nacelle</t>
+          <t>neat:BlackBox</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nacelle</t>
+          <t>Black-Box</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>A housing which contains the drive‑train and other elements on top of a horizontal axis wind turbine tower.</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>neat:WindTurbine</t>
+          <t>neat:Controls</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9064</t>
+          <t>http://orcid.org/0000-0003-4124-9063</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3324,36 +3308,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>neat:Cooling</t>
+          <t>neat:Nacelle</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cooling</t>
+          <t>Nacelle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A procedure by means of which heat resulting from losses occurring in a machine is given up to a primary coolant which may be continuously replaced or may itself be cooled by a secondary coolant in a heat exchanger.</t>
+          <t>A housing which contains the drive‑train and other elements on top of a horizontal axis wind turbine tower.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>neat:Nacelle</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>411-44</t>
-        </is>
-      </c>
+          <t>neat:WindTurbine</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9065</t>
+          <t>http://orcid.org/0000-0003-4124-9064</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3373,19 +3353,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>neat:Gearbox</t>
+          <t>neat:Cooling</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gearbox</t>
+          <t>Cooling</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A protective casing providing a reservoir of oil or grease for the gearing.</t>
+          <t>A procedure by means of which heat resulting from losses occurring in a machine is given up to a primary coolant which may be continuously replaced or may itself be cooled by a secondary coolant in a heat exchanger.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3394,11 +3374,15 @@
           <t>neat:Nacelle</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>411-44</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9066</t>
+          <t>http://orcid.org/0000-0003-4124-9065</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3418,19 +3402,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>neat:Generator</t>
+          <t>neat:Gearbox</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Generator</t>
+          <t>Gearbox</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A machine which converts mechanical energy into electrical energy.</t>
+          <t>A protective casing providing a reservoir of oil or grease for the gearing.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3443,7 +3427,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9067</t>
+          <t>http://orcid.org/0000-0003-4124-9066</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3463,17 +3447,21 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>neat:MainShaft</t>
+          <t>neat:Generator</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Main Shaft</t>
+          <t>Generator</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>A machine which converts mechanical energy into electrical energy.</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
@@ -3484,7 +3472,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9068</t>
+          <t>http://orcid.org/0000-0003-4124-9067</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3504,21 +3492,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>neat:PowerElectronics</t>
+          <t>neat:MainShaft</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Power Electronics</t>
+          <t>Main Shaft</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>A field of electronics which deals with the conversion or switching of electric power with or without control of that power.</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
@@ -3529,7 +3513,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9069</t>
+          <t>http://orcid.org/0000-0003-4124-9068</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3549,19 +3533,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>neat:TurbineControl</t>
+          <t>neat:PowerElectronics</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Turbine Control</t>
+          <t>Power Electronics</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A wind turbine sub‑system that receives information about the condition of the wind turbine and/or its environment and adjusts the turbine in order to operate it within its operating limits.</t>
+          <t>A field of electronics which deals with the conversion or switching of electric power with or without control of that power.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3574,7 +3558,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9070</t>
+          <t>http://orcid.org/0000-0003-4124-9069</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -3594,32 +3578,32 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>neat:Rotor</t>
+          <t>neat:TurbineControl</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rotor</t>
+          <t>Turbine Control</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>One of the main part of a wind turbine</t>
+          <t>A wind turbine sub‑system that receives information about the condition of the wind turbine and/or its environment and adjusts the turbine in order to operate it within its operating limits.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>neat:WindTurbine</t>
+          <t>neat:Nacelle</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9071</t>
+          <t>http://orcid.org/0000-0003-4124-9070</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -3639,32 +3623,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>neat:Blades</t>
+          <t>neat:Rotor</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Blades</t>
+          <t>Rotor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Components of a wind turbine that harness wind energy and drive the rotor of a wind turbine.</t>
+          <t>One of the main part of a wind turbine</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>neat:Rotor</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9072</t>
+          <t>http://orcid.org/0000-0003-4124-9071</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3684,19 +3668,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>neat:Hub</t>
+          <t>neat:Blades</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hub</t>
+          <t>Blades</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A fixture for attaching the blades or blade assembly to the rotor shaft.</t>
+          <t>Components of a wind turbine that harness wind energy and drive the rotor of a wind turbine.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -3709,7 +3693,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9073</t>
+          <t>http://orcid.org/0000-0003-4124-9072</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -3729,32 +3713,32 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>neat:SupportStructure</t>
+          <t>neat:Hub</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Support Structure</t>
+          <t>Hub</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A part of a wind turbine comprising the tower and foundation.</t>
+          <t>A fixture for attaching the blades or blade assembly to the rotor shaft.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>neat:WindTurbine</t>
+          <t>neat:Rotor</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9074</t>
+          <t>http://orcid.org/0000-0003-4124-9073</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -3774,28 +3758,32 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>neat:Floating</t>
+          <t>neat:SupportStructure</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Floating</t>
+          <t>Support Structure</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>A part of a wind turbine comprising the tower and foundation.</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>neat:SupportStructure</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9075</t>
+          <t>http://orcid.org/0000-0003-4124-9074</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -3815,21 +3803,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>neat:Foundation</t>
+          <t>neat:Floating</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Floating</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>A structure set in the ground, to which the base of a support is attached to provide the necessary anchorage to withstand all applied loads.</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
@@ -3840,7 +3824,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9076</t>
+          <t>http://orcid.org/0000-0003-4124-9075</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -3860,17 +3844,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>neat:MooringLines</t>
+          <t>neat:Foundation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mooring Lines</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>A structure set in the ground, to which the base of a support is attached to provide the necessary anchorage to withstand all applied loads.</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
@@ -3881,7 +3869,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9077</t>
+          <t>http://orcid.org/0000-0003-4124-9076</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3901,12 +3889,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>neat:Substructure</t>
+          <t>neat:MooringLines</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Substructure</t>
+          <t>Mooring Lines</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3922,7 +3910,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9078</t>
+          <t>http://orcid.org/0000-0003-4124-9077</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3942,32 +3930,28 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>neat:Tower</t>
+          <t>neat:Substructure</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>Substructure</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>A support which may be made of such material as steel, wood, concrete, and comprising a body which is normally four-sided, and cross-arms.</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>neat:WindTurbine</t>
+          <t>neat:SupportStructure</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9079</t>
+          <t>http://orcid.org/0000-0003-4124-9078</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -3987,32 +3971,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>neat:Tubular</t>
+          <t>neat:Tower</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tubular</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A structure of a tower having the form or shape of a tube slightly conical (i.e. with their diameter increasing towards the base) in order to increase their strength and to save materials at the same time.</t>
+          <t>A support which may be made of such material as steel, wood, concrete, and comprising a body which is normally four-sided, and cross-arms.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>neat:Tower</t>
+          <t>neat:WindTurbine</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9080</t>
+          <t>http://orcid.org/0000-0003-4124-9079</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4032,19 +4016,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>neat:Lattice</t>
+          <t>neat:Tubular</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lattice</t>
+          <t>Tubular</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A structure consisting of strips of wood or metal crossed and fastened together with square-shaped spaces left between, used as a support for climbing plants.</t>
+          <t>A structure of a tower having the form or shape of a tube slightly conical (i.e. with their diameter increasing towards the base) in order to increase their strength and to save materials at the same time.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4057,7 +4041,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0003-4124-9081</t>
+          <t>http://orcid.org/0000-0003-4124-9080</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4074,6 +4058,51 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>neat:Lattice</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Lattice</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>A structure consisting of strips of wood or metal crossed and fastened together with square-shaped spaces left between, used as a support for climbing plants.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>neat:Tower</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>http://orcid.org/0000-0003-4124-9081</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
